--- a/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Planitems.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Planitems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import Payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74B9917-9F5C-4642-BB02-33A210712AA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6569E1C0-CE27-41F4-9E60-0985618190E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{A086A214-8C7C-4896-B10D-F48DD57DAF75}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>company_code</t>
   </si>
@@ -55,12 +55,6 @@
     <t>planitems_id</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>เลขที่  (null)</t>
-  </si>
-  <si>
     <t>ทดสอบ</t>
   </si>
   <si>
@@ -68,6 +62,15 @@
   </si>
   <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -150,7 +153,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,6 +175,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -496,7 +505,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,10 +538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96928A82-A8BF-404F-BE21-1DA2DB6189A7}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,14 +550,15 @@
     <col min="2" max="2" width="19.453125" style="6" customWidth="1"/>
     <col min="3" max="3" width="19.453125" customWidth="1"/>
     <col min="4" max="5" width="22.90625" customWidth="1"/>
+    <col min="7" max="8" width="25.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
+      <c r="B1" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>7</v>
@@ -559,8 +569,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -576,25 +588,31 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>